--- a/HW_design/Libaas_System/LiBaaS_component assy check.xlsx
+++ b/HW_design/Libaas_System/LiBaaS_component assy check.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOARD1" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="BOARD5" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="128">
   <si>
     <t>Footprint</t>
   </si>
@@ -821,7 +820,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -2604,22 +2603,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2680,8 +2680,11 @@
       <c r="E4" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2725,8 +2728,11 @@
       <c r="E7" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F7" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>92</v>
       </c>
@@ -2771,7 +2777,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>93</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>99</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2924,8 +2930,11 @@
       <c r="E20" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -2941,8 +2950,11 @@
       <c r="E21" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -2959,7 +2971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -2973,8 +2985,11 @@
       <c r="E23" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>100</v>
       </c>
@@ -2991,7 +3006,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
@@ -3008,7 +3023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -3022,8 +3037,11 @@
       <c r="E26" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>102</v>
       </c>
@@ -3037,8 +3055,11 @@
       <c r="E27" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -3052,8 +3073,11 @@
       <c r="E28" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -3067,8 +3091,11 @@
       <c r="E29" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>103</v>
       </c>
@@ -3082,8 +3109,11 @@
       <c r="E30" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -3099,8 +3129,11 @@
       <c r="E31" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F31" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
@@ -3113,7 +3146,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -3127,8 +3160,11 @@
       <c r="E33" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
@@ -3145,7 +3181,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>55</v>
       </c>
@@ -3162,7 +3198,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>58</v>
       </c>
@@ -3179,7 +3215,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>104</v>
       </c>
@@ -3193,8 +3229,11 @@
       <c r="E37" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F37" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -3209,7 +3248,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -3224,7 +3263,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -3238,8 +3277,11 @@
       <c r="E40" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F40" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>108</v>
       </c>
@@ -3254,7 +3296,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>109</v>
       </c>
@@ -3269,7 +3311,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
@@ -3284,7 +3326,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -3298,8 +3340,11 @@
       <c r="E44" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F44" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>112</v>
       </c>
@@ -3314,7 +3359,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>69</v>
       </c>
@@ -3329,7 +3374,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>113</v>
       </c>
@@ -3344,7 +3389,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -4370,9 +4415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/HW_design/Libaas_System/LiBaaS_component assy check.xlsx
+++ b/HW_design/Libaas_System/LiBaaS_component assy check.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BOARD1" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="131">
   <si>
     <t>Footprint</t>
   </si>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>to be mounted again</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -508,6 +517,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -515,7 +535,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,6 +554,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -817,22 +840,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -849,7 +873,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -864,7 +888,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -879,7 +903,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -893,8 +917,11 @@
       <c r="E4" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -909,7 +936,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -924,7 +951,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -939,7 +966,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -954,7 +981,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
@@ -969,7 +996,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>92</v>
       </c>
@@ -984,7 +1011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>93</v>
       </c>
@@ -999,7 +1026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
@@ -1014,7 +1041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -1029,7 +1056,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -1044,7 +1071,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -1059,7 +1086,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
@@ -1074,7 +1101,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>99</v>
       </c>
@@ -1089,7 +1116,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1106,7 +1133,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1121,7 +1148,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1137,8 +1164,11 @@
       <c r="E20" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1154,8 +1184,11 @@
       <c r="E21" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1172,7 +1205,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1186,8 +1219,11 @@
       <c r="E23" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>100</v>
       </c>
@@ -1204,7 +1240,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
@@ -1221,7 +1257,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -1235,8 +1271,11 @@
       <c r="E26" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>102</v>
       </c>
@@ -1250,8 +1289,11 @@
       <c r="E27" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -1265,8 +1307,11 @@
       <c r="E28" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -1280,8 +1325,11 @@
       <c r="E29" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>103</v>
       </c>
@@ -1295,8 +1343,11 @@
       <c r="E30" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -1313,7 +1364,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
@@ -1699,22 +1750,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -1731,7 +1783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -1746,7 +1798,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -1761,7 +1813,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1775,8 +1827,11 @@
       <c r="E4" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -1791,7 +1846,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -1806,7 +1861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1820,8 +1875,11 @@
       <c r="E7" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F7" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -1836,7 +1894,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
@@ -1851,7 +1909,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>92</v>
       </c>
@@ -1866,7 +1924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>93</v>
       </c>
@@ -1881,7 +1939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
@@ -1896,7 +1954,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -1911,7 +1969,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -1926,7 +1984,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -1941,7 +1999,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
@@ -1956,7 +2014,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>99</v>
       </c>
@@ -1971,7 +2029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1988,7 +2046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2003,7 +2061,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2019,8 +2077,11 @@
       <c r="E20" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -2036,8 +2097,11 @@
       <c r="E21" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -2054,7 +2118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -2068,8 +2132,11 @@
       <c r="E23" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>100</v>
       </c>
@@ -2086,7 +2153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2103,7 +2170,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -2117,8 +2184,11 @@
       <c r="E26" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>102</v>
       </c>
@@ -2132,8 +2202,11 @@
       <c r="E27" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -2147,8 +2220,11 @@
       <c r="E28" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -2162,8 +2238,11 @@
       <c r="E29" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>103</v>
       </c>
@@ -2177,8 +2256,11 @@
       <c r="E30" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -2194,8 +2276,11 @@
       <c r="E31" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F31" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
@@ -2208,7 +2293,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -2222,8 +2307,11 @@
       <c r="E33" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
@@ -2240,7 +2328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>55</v>
       </c>
@@ -2257,7 +2345,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>58</v>
       </c>
@@ -2274,7 +2362,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>104</v>
       </c>
@@ -2288,8 +2376,11 @@
       <c r="E37" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F37" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -2304,7 +2395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -2319,7 +2410,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -2333,8 +2424,11 @@
       <c r="E40" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F40" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>108</v>
       </c>
@@ -2349,7 +2443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>109</v>
       </c>
@@ -2364,7 +2458,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
@@ -2379,7 +2473,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -2393,8 +2487,11 @@
       <c r="E44" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F44" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>112</v>
       </c>
@@ -2409,7 +2506,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>69</v>
       </c>
@@ -2424,7 +2521,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>113</v>
       </c>
@@ -2439,7 +2536,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -2454,7 +2551,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>115</v>
       </c>
@@ -2469,7 +2566,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>116</v>
       </c>
@@ -2484,7 +2581,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
@@ -2499,7 +2596,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>117</v>
       </c>
@@ -2514,7 +2611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -2529,7 +2626,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>74</v>
       </c>
@@ -2544,7 +2641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>78</v>
       </c>
@@ -2559,7 +2656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>80</v>
       </c>
@@ -2573,8 +2670,11 @@
       <c r="E56" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
@@ -2584,8 +2684,11 @@
       <c r="E57" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -2594,6 +2697,9 @@
       </c>
       <c r="E58" s="9" t="s">
         <v>121</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2605,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3531,22 +3637,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -3563,7 +3670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -3578,7 +3685,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -3593,7 +3700,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3607,8 +3714,11 @@
       <c r="E4" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -3623,7 +3733,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -3638,7 +3748,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -3652,8 +3762,11 @@
       <c r="E7" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F7" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -3668,7 +3781,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
@@ -3683,7 +3796,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>92</v>
       </c>
@@ -3698,7 +3811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>93</v>
       </c>
@@ -3713,7 +3826,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
@@ -3728,7 +3841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -3743,7 +3856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -3758,7 +3871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -3773,7 +3886,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
@@ -3788,7 +3901,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>99</v>
       </c>
@@ -3803,7 +3916,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -3820,7 +3933,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -3835,7 +3948,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -3851,8 +3964,11 @@
       <c r="E20" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -3868,8 +3984,11 @@
       <c r="E21" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -3886,7 +4005,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -3900,8 +4019,11 @@
       <c r="E23" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>100</v>
       </c>
@@ -3918,7 +4040,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
@@ -3935,7 +4057,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -3949,8 +4071,11 @@
       <c r="E26" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>102</v>
       </c>
@@ -3964,8 +4089,11 @@
       <c r="E27" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -3979,8 +4107,11 @@
       <c r="E28" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -3994,8 +4125,11 @@
       <c r="E29" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>103</v>
       </c>
@@ -4009,8 +4143,11 @@
       <c r="E30" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -4026,8 +4163,11 @@
       <c r="E31" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F31" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
@@ -4040,7 +4180,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -4054,8 +4194,11 @@
       <c r="E33" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
@@ -4072,7 +4215,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>55</v>
       </c>
@@ -4089,7 +4232,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>58</v>
       </c>
@@ -4106,7 +4249,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>104</v>
       </c>
@@ -4120,8 +4263,11 @@
       <c r="E37" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F37" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -4136,7 +4282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -4151,7 +4297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -4165,8 +4311,11 @@
       <c r="E40" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F40" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>108</v>
       </c>
@@ -4181,7 +4330,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>109</v>
       </c>
@@ -4196,7 +4345,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
@@ -4211,7 +4360,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -4225,8 +4374,11 @@
       <c r="E44" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F44" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>112</v>
       </c>
@@ -4241,7 +4393,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>69</v>
       </c>
@@ -4256,7 +4408,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>113</v>
       </c>
@@ -4271,7 +4423,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -4286,7 +4438,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>115</v>
       </c>
@@ -4301,7 +4453,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>116</v>
       </c>
@@ -4316,7 +4468,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
@@ -4331,7 +4483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>117</v>
       </c>
@@ -4346,7 +4498,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -4361,7 +4513,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>74</v>
       </c>
@@ -4376,7 +4528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>78</v>
       </c>
@@ -4391,7 +4543,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>80</v>
       </c>
@@ -4404,6 +4556,9 @@
       </c>
       <c r="E56" s="9" t="s">
         <v>121</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4413,22 +4568,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -4445,7 +4601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -4460,7 +4616,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -4475,7 +4631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4489,8 +4645,11 @@
       <c r="E4" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -4505,7 +4664,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -4520,7 +4679,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -4534,8 +4693,11 @@
       <c r="E7" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F7" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -4550,7 +4712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
@@ -4565,7 +4727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>92</v>
       </c>
@@ -4580,7 +4742,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>93</v>
       </c>
@@ -4595,7 +4757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
@@ -4610,7 +4772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -4625,7 +4787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -4640,7 +4802,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -4655,7 +4817,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
@@ -4670,7 +4832,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>99</v>
       </c>
@@ -4685,7 +4847,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -4702,7 +4864,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -4716,8 +4878,11 @@
       <c r="E19" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -4733,8 +4898,11 @@
       <c r="E20" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -4750,8 +4918,11 @@
       <c r="E21" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -4768,7 +4939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -4782,8 +4953,11 @@
       <c r="E23" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>100</v>
       </c>
@@ -4800,7 +4974,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
@@ -4817,7 +4991,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -4831,8 +5005,11 @@
       <c r="E26" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>102</v>
       </c>
@@ -4846,8 +5023,11 @@
       <c r="E27" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -4861,8 +5041,11 @@
       <c r="E28" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -4876,8 +5059,11 @@
       <c r="E29" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>103</v>
       </c>
@@ -4891,8 +5077,11 @@
       <c r="E30" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F30" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -4908,8 +5097,11 @@
       <c r="E31" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F31" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
@@ -4922,7 +5114,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -4936,8 +5128,11 @@
       <c r="E33" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
@@ -4954,7 +5149,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>55</v>
       </c>
@@ -4971,7 +5166,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>58</v>
       </c>
@@ -4988,7 +5183,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>104</v>
       </c>
@@ -5002,8 +5197,11 @@
       <c r="E37" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -5018,7 +5216,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -5033,7 +5231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -5047,8 +5245,11 @@
       <c r="E40" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F40" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>108</v>
       </c>
@@ -5063,7 +5264,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>109</v>
       </c>
@@ -5078,7 +5279,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
@@ -5093,7 +5294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -5107,8 +5308,11 @@
       <c r="E44" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F44" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>112</v>
       </c>
@@ -5123,7 +5327,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>69</v>
       </c>
@@ -5138,7 +5342,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>113</v>
       </c>
@@ -5153,7 +5357,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -5168,7 +5372,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>115</v>
       </c>
@@ -5183,7 +5387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>116</v>
       </c>
@@ -5198,7 +5402,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
@@ -5213,7 +5417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>117</v>
       </c>
@@ -5228,7 +5432,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -5243,7 +5447,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>74</v>
       </c>
@@ -5258,7 +5462,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>78</v>
       </c>
@@ -5273,7 +5477,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>80</v>
       </c>
@@ -5287,8 +5491,11 @@
       <c r="E56" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
@@ -5297,6 +5504,9 @@
       </c>
       <c r="E57" s="9" t="s">
         <v>121</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
